--- a/EditOrder/credData.xlsx
+++ b/EditOrder/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>400000002</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>https://test1.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>RSURL</t>
+  </si>
+  <si>
+    <t>Rsuser</t>
+  </si>
+  <si>
+    <t>Rspass</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest.com/</t>
+  </si>
+  <si>
+    <t>michigan@na.com</t>
   </si>
 </sst>
 </file>
@@ -521,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -537,7 +552,7 @@
     <col min="7" max="7" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,8 +589,17 @@
       <c r="L1" t="s">
         <v>16</v>
       </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -610,6 +634,15 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -620,6 +653,8 @@
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="M2" r:id="rId5"/>
+    <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
